--- a/src/ontology/Ontorat/Ontorat_input_for_kidney_biomarkers-Ghida-Apr2023.xlsx
+++ b/src/ontology/Ontorat/Ontorat_input_for_kidney_biomarkers-Ghida-Apr2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongqunh\GitHub\KPMP\KTAO\src\ontology\Ontorat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongqunh\GitHub\KTAO\src\ontology\Ontorat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E17135D-D38B-448A-B680-10B3ABFE274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844692CF-FDDE-491F-AEE6-D634720D777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Need to be added" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="285">
   <si>
     <t>Gene name</t>
   </si>
@@ -876,6 +876,18 @@
   </si>
   <si>
     <t>CL:1000768</t>
+  </si>
+  <si>
+    <t>Logic：</t>
+  </si>
+  <si>
+    <t>geneX 'biomarker of' some cellY</t>
+  </si>
+  <si>
+    <t>proteinX 'biomarker of' some cellY</t>
+  </si>
+  <si>
+    <t>6 protein markers</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:AD998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1411,6 +1423,9 @@
       <c r="N2" s="21" t="s">
         <v>234</v>
       </c>
+      <c r="O2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1451,6 +1466,9 @@
       <c r="N3" s="21" t="s">
         <v>11</v>
       </c>
+      <c r="O3" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -1845,6 +1863,9 @@
       <c r="N13" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="O13" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -1884,6 +1905,9 @@
       </c>
       <c r="N14" s="16" t="s">
         <v>16</v>
+      </c>
+      <c r="O14" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
